--- a/assets/LENCERIA.xlsx
+++ b/assets/LENCERIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="143">
   <si>
     <t>Nombre</t>
   </si>
@@ -57,15 +57,410 @@
   </si>
   <si>
     <t>3-3.2</t>
+  </si>
+  <si>
+    <t>Conjunto Animal Print Brillos</t>
+  </si>
+  <si>
+    <t>Unica</t>
+  </si>
+  <si>
+    <t>Conjunto Gerania</t>
+  </si>
+  <si>
+    <t>32-34-36-38</t>
+  </si>
+  <si>
+    <t>Conjunto Varilla</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>7-7.2-7.3</t>
+  </si>
+  <si>
+    <t>Mora Brasier</t>
+  </si>
+  <si>
+    <t>8-8.2</t>
+  </si>
+  <si>
+    <t>Conjunto con Liguero</t>
+  </si>
+  <si>
+    <t>Corset Sonia</t>
+  </si>
+  <si>
+    <t>10-10.2</t>
+  </si>
+  <si>
+    <t>Conjunto Alejandra</t>
+  </si>
+  <si>
+    <t>Set Lentejuelas Davila</t>
+  </si>
+  <si>
+    <t>32-34-36</t>
+  </si>
+  <si>
+    <t>Conjunto Sofia</t>
+  </si>
+  <si>
+    <t>Conjunto Copa Braleth Anik</t>
+  </si>
+  <si>
+    <t>14-14.2</t>
+  </si>
+  <si>
+    <t>Corset con Panty Copa y Varillas</t>
+  </si>
+  <si>
+    <t>15-15.2</t>
+  </si>
+  <si>
+    <t>Corset Varilla SOL</t>
+  </si>
+  <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
+    <t>Set Brillos</t>
+  </si>
+  <si>
+    <t>S-M</t>
+  </si>
+  <si>
+    <t>Corset Dulcinea</t>
+  </si>
+  <si>
+    <t>M-L</t>
+  </si>
+  <si>
+    <t>19-19.2</t>
+  </si>
+  <si>
+    <t>Conjunto Ivy</t>
+  </si>
+  <si>
+    <t>20-20.2</t>
+  </si>
+  <si>
+    <t>Corset Leticia</t>
+  </si>
+  <si>
+    <t>Conjunto Lorenza Mallatex</t>
+  </si>
+  <si>
+    <t>Conjunto Liguero Signe</t>
+  </si>
+  <si>
+    <t>Conjunto Encaje Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corset con Panty Dulce </t>
+  </si>
+  <si>
+    <t>Set Cleopatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Moños </t>
+  </si>
+  <si>
+    <t>Conjunto Estampado Lauren</t>
+  </si>
+  <si>
+    <t>Corset Lentejuelas Nara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Lenceria Rosas </t>
+  </si>
+  <si>
+    <t>Corset con Panty Martina</t>
+  </si>
+  <si>
+    <t>Crop Top Varilla Aury</t>
+  </si>
+  <si>
+    <t>Corset Largo ADA</t>
+  </si>
+  <si>
+    <t>Corset Varilla Tulia</t>
+  </si>
+  <si>
+    <t>34-34.2</t>
+  </si>
+  <si>
+    <t>Brasier y Cachetero</t>
+  </si>
+  <si>
+    <t>35-35.2-35.3</t>
+  </si>
+  <si>
+    <t>32-34-36-39</t>
+  </si>
+  <si>
+    <t>36-36.2</t>
+  </si>
+  <si>
+    <t>Corset Orquidea</t>
+  </si>
+  <si>
+    <t>37-37.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto Chanel </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>38-38.2</t>
+  </si>
+  <si>
+    <t>Conjunto Destellante Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liguero Antonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Cleo </t>
+  </si>
+  <si>
+    <t>41-41.2</t>
+  </si>
+  <si>
+    <t>Conjunto Basico Carmen</t>
+  </si>
+  <si>
+    <t>42-42.2</t>
+  </si>
+  <si>
+    <t>Conjunto Solen</t>
+  </si>
+  <si>
+    <t>Set Lentejuelas</t>
+  </si>
+  <si>
+    <t>Conjunto Corset-Panty Nova Largo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto Varilla Gabriela </t>
+  </si>
+  <si>
+    <t>46-46.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenceria Lolita </t>
+  </si>
+  <si>
+    <t>47-47.2</t>
+  </si>
+  <si>
+    <t>Conjunto Cresida</t>
+  </si>
+  <si>
+    <t>Conjunto Aurora</t>
+  </si>
+  <si>
+    <t>49-49.2</t>
+  </si>
+  <si>
+    <t>Conjunto Basico Fida</t>
+  </si>
+  <si>
+    <t>Liguero Gala</t>
+  </si>
+  <si>
+    <t>Conjunto Elettra Mariposa</t>
+  </si>
+  <si>
+    <t>Conjunto-Panty Estrellita</t>
+  </si>
+  <si>
+    <t>Body Fabiana</t>
+  </si>
+  <si>
+    <t>Conjunto Persefone</t>
+  </si>
+  <si>
+    <t>32-34</t>
+  </si>
+  <si>
+    <t>Conjunto Corset Hazel</t>
+  </si>
+  <si>
+    <t>Corset-Panty Hermes</t>
+  </si>
+  <si>
+    <t>Conjunto Brillos V</t>
+  </si>
+  <si>
+    <t>Conjunto-Blusa y Semi Tanga Alia</t>
+  </si>
+  <si>
+    <t>Trio Cachetero, Top con Copa y Tanga Graduable</t>
+  </si>
+  <si>
+    <t>Conjunto Jossie</t>
+  </si>
+  <si>
+    <t>Conjunto Afrodita</t>
+  </si>
+  <si>
+    <t>Crop Top Salome</t>
+  </si>
+  <si>
+    <t>Conjunto Blusa Michael</t>
+  </si>
+  <si>
+    <t>Conjunto Victoria Basico</t>
+  </si>
+  <si>
+    <t>Conjunto Raily</t>
+  </si>
+  <si>
+    <t>Corset con Brillos Brigitte</t>
+  </si>
+  <si>
+    <t>68-68.2</t>
+  </si>
+  <si>
+    <t>Corset Madison</t>
+  </si>
+  <si>
+    <t>69-69.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corset Encaje Katia </t>
+  </si>
+  <si>
+    <t>70-70.2-70.3-70.4-70.5-70.6</t>
+  </si>
+  <si>
+    <t>Colegiala Cuadros</t>
+  </si>
+  <si>
+    <t>71-71.2</t>
+  </si>
+  <si>
+    <t>Conjunto Flot</t>
+  </si>
+  <si>
+    <t>72-72.2</t>
+  </si>
+  <si>
+    <t>Conjunto Cachetero</t>
+  </si>
+  <si>
+    <t>73-73.2-73.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto </t>
+  </si>
+  <si>
+    <t>74-74.2-74.3</t>
+  </si>
+  <si>
+    <t>Panty</t>
+  </si>
+  <si>
+    <t>Panty Grueso</t>
+  </si>
+  <si>
+    <t>76-76.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panty </t>
+  </si>
+  <si>
+    <t>Cachetero</t>
+  </si>
+  <si>
+    <t>M-L-XL</t>
+  </si>
+  <si>
+    <t>78-78.2</t>
+  </si>
+  <si>
+    <t>Tanga Bordada</t>
+  </si>
+  <si>
+    <t>80-80.2-80.3</t>
+  </si>
+  <si>
+    <t>Boxer Dama</t>
+  </si>
+  <si>
+    <t>81-81.2</t>
+  </si>
+  <si>
+    <t>Panty Grueso Graduable</t>
+  </si>
+  <si>
+    <t>82-82.2</t>
+  </si>
+  <si>
+    <t>Panty Licrada con Brillos Audry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanga Victoria Secret 2 </t>
+  </si>
+  <si>
+    <t>Delfina</t>
+  </si>
+  <si>
+    <t>85-85.2</t>
+  </si>
+  <si>
+    <t>Moño Lentejuelas</t>
+  </si>
+  <si>
+    <t>86-86.2</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Graduable</t>
+  </si>
+  <si>
+    <t>87-87.2</t>
+  </si>
+  <si>
+    <t>Esperanza</t>
+  </si>
+  <si>
+    <t>88-88.2-88.3-88.4</t>
+  </si>
+  <si>
+    <t>Esperanza Lazos</t>
+  </si>
+  <si>
+    <t>Panty Antonella</t>
+  </si>
+  <si>
+    <t>90-90.2-90.3</t>
+  </si>
+  <si>
+    <t>Panty Alma</t>
+  </si>
+  <si>
+    <t>91-91.2</t>
+  </si>
+  <si>
+    <t>Panty Victoria</t>
+  </si>
+  <si>
+    <t>Panty Encaje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,10 +491,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,77 +782,1338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>44000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>75000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
         <v>62000</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>52000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>75000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>57000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>49000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>80000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>67000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>61000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>28000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>65000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>58000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>52000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2">
+        <v>76000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>75000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>54000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2">
+        <v>67000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2">
+        <v>48000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>48000</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2">
+        <v>32000</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2">
+        <v>64000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <v>64000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2">
+        <v>57000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>69000</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2">
+        <v>58000</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42000</v>
+      </c>
+      <c r="D52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <v>29000</v>
+      </c>
+      <c r="D53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2">
+        <v>70000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>65000</v>
+      </c>
+      <c r="D55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2">
+        <v>66000</v>
+      </c>
+      <c r="D59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>53000</v>
+      </c>
+      <c r="D60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="2">
+        <v>55000</v>
+      </c>
+      <c r="D65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>72000</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2">
+        <v>65000</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2">
+        <v>65000</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2">
+        <v>54000</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2">
+        <v>42000</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2">
+        <v>14000</v>
+      </c>
+      <c r="D76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2">
+        <v>13000</v>
+      </c>
+      <c r="D78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2">
+        <v>23000</v>
+      </c>
+      <c r="D84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2">
+        <v>23000</v>
+      </c>
+      <c r="D85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9000</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D94" s="1">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/LENCERIA.xlsx
+++ b/assets/LENCERIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
   <si>
     <t>Nombre</t>
   </si>
@@ -453,6 +453,48 @@
   </si>
   <si>
     <t>Panty Encaje</t>
+  </si>
+  <si>
+    <t>Disfraz Enfermera</t>
+  </si>
+  <si>
+    <t>94-94.2</t>
+  </si>
+  <si>
+    <t>Colegiala Rosada</t>
+  </si>
+  <si>
+    <t>95-95.2</t>
+  </si>
+  <si>
+    <t>Monja</t>
+  </si>
+  <si>
+    <t>96-96.2</t>
+  </si>
+  <si>
+    <t>Mucama</t>
+  </si>
+  <si>
+    <t>Vaquita</t>
+  </si>
+  <si>
+    <t>98-98.2</t>
+  </si>
+  <si>
+    <t>Blanca nieves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessy </t>
+  </si>
+  <si>
+    <t>Caperucita Roja</t>
+  </si>
+  <si>
+    <t>Mucama Rosada</t>
+  </si>
+  <si>
+    <t>Conejita</t>
   </si>
 </sst>
 </file>
@@ -782,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2112,6 +2154,160 @@
         <v>93</v>
       </c>
     </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D103" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D104" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2">
+        <v>68000</v>
+      </c>
+      <c r="D105" s="1">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>

--- a/assets/LENCERIA.xlsx
+++ b/assets/LENCERIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="158">
   <si>
     <t>Nombre</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Conejita</t>
+  </si>
+  <si>
+    <t>99-99.2-99.3</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:D105"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2248,8 +2251,8 @@
       <c r="C101" s="2">
         <v>68000</v>
       </c>
-      <c r="D101" s="1">
-        <v>99</v>
+      <c r="D101" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
